--- a/Total results (Linux).xlsx
+++ b/Total results (Linux).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\King\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\cholesky-computing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0355348-F397-4813-A27E-BABFF2DB2030}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1E0A60-BC00-4183-8981-0060C68F0752}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36A4AD0E-3F37-430F-B174-8E553E113EAD}"/>
   </bookViews>
@@ -469,20 +469,20 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$G$2:$G$5</c:f>
+              <c:f>Foglio1!$B$2:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30905032</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52329064</c:v>
+                  <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1743552</c:v>
+                  <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7208968</c:v>
+                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -547,20 +547,20 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$G$2:$G$5</c:f>
+              <c:f>Foglio1!$B$2:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30905032</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52329064</c:v>
+                  <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1743552</c:v>
+                  <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7208968</c:v>
+                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -613,7 +613,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -625,20 +625,20 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$G$2:$G$5</c:f>
+              <c:f>Foglio1!$B$2:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30905032</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52329064</c:v>
+                  <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1743552</c:v>
+                  <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7208968</c:v>
+                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -683,6 +683,98 @@
         <c:smooth val="0"/>
         <c:axId val="34574959"/>
         <c:axId val="1119808495"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>name</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$2:$B$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>cfd1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>cfd2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>ex15.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>1</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-9CB0-45BE-B0CE-08545C2EDD81}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="34574959"/>
@@ -694,7 +786,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -801,7 +893,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -981,34 +1073,33 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$G$6:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Foglio1!$B$6:$B$12</c:f>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>46198804</c:v>
+                  <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98271828</c:v>
+                  <c:v>G3_circuit.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37518636</c:v>
+                  <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1211524</c:v>
+                  <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60675148</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4259844</c:v>
+                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22189588</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1078,34 +1169,33 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$G$6:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Foglio1!$B$6:$B$12</c:f>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>46198804</c:v>
+                  <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98271828</c:v>
+                  <c:v>G3_circuit.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37518636</c:v>
+                  <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1211524</c:v>
+                  <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60675148</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4259844</c:v>
+                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22189588</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1164,7 +1254,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -1175,34 +1265,33 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$G$6:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Foglio1!$B$6:$B$12</c:f>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>46198804</c:v>
+                  <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98271828</c:v>
+                  <c:v>G3_circuit.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37518636</c:v>
+                  <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1211524</c:v>
+                  <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60675148</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4259844</c:v>
+                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22189588</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1253,6 +1342,107 @@
         <c:smooth val="0"/>
         <c:axId val="1114698703"/>
         <c:axId val="1002171567"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>name</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$6:$B$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>parabolic_fem.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>G3_circuit.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>cfd2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>ex15.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>apache2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>cfd1.mtx</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>1</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-A094-41F3-8C6B-13F817855D37}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1114698703"/>
@@ -1264,7 +1454,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1371,7 +1561,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1552,29 +1742,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$G$13:$G$19</c:f>
+              <c:f>Foglio1!$B$13:$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>60676240</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22190680</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37519728</c:v>
+                  <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1212616</c:v>
+                  <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98272920</c:v>
+                  <c:v>G3_circuit.mtx</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46199896</c:v>
+                  <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4260936</c:v>
+                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1648,29 +1838,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$G$13:$G$19</c:f>
+              <c:f>Foglio1!$B$13:$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>60676240</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22190680</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37519728</c:v>
+                  <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1212616</c:v>
+                  <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98272920</c:v>
+                  <c:v>G3_circuit.mtx</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46199896</c:v>
+                  <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4260936</c:v>
+                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1732,7 +1922,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -1744,29 +1934,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$G$13:$G$19</c:f>
+              <c:f>Foglio1!$B$13:$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>60676240</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22190680</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37519728</c:v>
+                  <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1212616</c:v>
+                  <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98272920</c:v>
+                  <c:v>G3_circuit.mtx</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46199896</c:v>
+                  <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4260936</c:v>
+                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1820,6 +2010,107 @@
         <c:smooth val="0"/>
         <c:axId val="1189074223"/>
         <c:axId val="1002168655"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>name</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$13:$B$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>apache2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>cfd1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>cfd2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>ex15.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>G3_circuit.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>parabolic_fem.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>1</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-EFB3-429E-9F4E-864BC4E30A48}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1189074223"/>
@@ -1831,7 +2122,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1894,7 +2185,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1938,7 +2229,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2119,29 +2410,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$G$20:$G$26</c:f>
+              <c:f>Foglio1!$B$20:$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>46198804</c:v>
+                  <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98271828</c:v>
+                  <c:v>G3_circuit.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37548540</c:v>
+                  <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1211524</c:v>
+                  <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60675148</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4259844</c:v>
+                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22222996</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2215,29 +2506,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$G$20:$G$26</c:f>
+              <c:f>Foglio1!$B$20:$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>46198804</c:v>
+                  <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98271828</c:v>
+                  <c:v>G3_circuit.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37548540</c:v>
+                  <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1211524</c:v>
+                  <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60675148</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4259844</c:v>
+                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22222996</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2299,7 +2590,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -2311,29 +2602,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$G$20:$G$26</c:f>
+              <c:f>Foglio1!$B$20:$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>46198804</c:v>
+                  <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98271828</c:v>
+                  <c:v>G3_circuit.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37548540</c:v>
+                  <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1211524</c:v>
+                  <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60675148</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4259844</c:v>
+                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22222996</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2387,6 +2678,107 @@
         <c:smooth val="0"/>
         <c:axId val="1104766207"/>
         <c:axId val="1119828047"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>name</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$20:$B$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>parabolic_fem.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>G3_circuit.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>cfd2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>ex15.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>apache2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>cfd1.mtx</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>1</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-6BF1-4825-8B2C-E9969DF6CB50}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1104766207"/>
@@ -2398,7 +2790,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2461,7 +2853,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2505,7 +2897,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4761,10 +5153,10 @@
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>678180</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4791,16 +5183,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4828,15 +5220,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>670560</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4863,16 +5255,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5242,8 +5634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701A704E-F64D-4202-A0F0-6C8958C79E3A}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S44" sqref="S44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Total results (Linux).xlsx
+++ b/Total results (Linux).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\cholesky-computing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1E0A60-BC00-4183-8981-0060C68F0752}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492B26AB-73BE-4206-A4A9-AED68BFB6123}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36A4AD0E-3F37-430F-B174-8E553E113EAD}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
   <si>
     <t>program</t>
   </si>
@@ -131,25 +131,16 @@
     <t>3085406</t>
   </si>
   <si>
-    <t>52329064</t>
-  </si>
-  <si>
     <t>6867</t>
   </si>
   <si>
     <t>98671</t>
   </si>
   <si>
-    <t>1743552</t>
-  </si>
-  <si>
     <t>81920</t>
   </si>
   <si>
     <t>327680</t>
-  </si>
-  <si>
-    <t>7208968</t>
   </si>
   <si>
     <t>715176</t>
@@ -161,25 +152,10 @@
     <t>832</t>
   </si>
   <si>
-    <t>60676240</t>
-  </si>
-  <si>
-    <t>22190680</t>
-  </si>
-  <si>
-    <t>37519728</t>
-  </si>
-  <si>
-    <t>1212616</t>
-  </si>
-  <si>
     <t>1585478</t>
   </si>
   <si>
     <t>7660826</t>
-  </si>
-  <si>
-    <t>98272920</t>
   </si>
   <si>
     <t>525825</t>
@@ -188,40 +164,13 @@
     <t>3674625</t>
   </si>
   <si>
-    <t>46199896</t>
-  </si>
-  <si>
-    <t>4260936</t>
-  </si>
-  <si>
     <t>Python</t>
-  </si>
-  <si>
-    <t>46198804</t>
-  </si>
-  <si>
-    <t>98271828</t>
   </si>
   <si>
     <t>3087898</t>
   </si>
   <si>
-    <t>37548540</t>
-  </si>
-  <si>
-    <t>1211524</t>
-  </si>
-  <si>
-    <t>60675148</t>
-  </si>
-  <si>
-    <t>4259844</t>
-  </si>
-  <si>
     <t>1828364</t>
-  </si>
-  <si>
-    <t>22222996</t>
   </si>
 </sst>
 </file>
@@ -274,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -282,19 +231,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -469,20 +433,20 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$2:$B$5</c:f>
+              <c:f>Foglio1!$B$9:$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>cfd1.mtx</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>cfd2.mtx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ex15.mtx</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -494,16 +458,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1268173672</c:v>
+                  <c:v>2774968</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2498198312</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41860000</c:v>
+                  <c:v>27857172</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>406911040</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>368859400</c:v>
+                  <c:v>904888848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,20 +511,20 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$2:$B$5</c:f>
+              <c:f>Foglio1!$B$9:$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>cfd1.mtx</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>cfd2.mtx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ex15.mtx</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -572,16 +536,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>260.19299999999998</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>633.50800000000004</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8220000000000001</c:v>
+                  <c:v>1027</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.638000000000005</c:v>
+                  <c:v>2246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -625,20 +589,20 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$2:$B$5</c:f>
+              <c:f>Foglio1!$B$9:$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>cfd1.mtx</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>cfd2.mtx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ex15.mtx</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -650,16 +614,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.4587709153303701E-13</c:v>
+                  <c:v>7.9530000000000003E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7556406837391204E-13</c:v>
+                  <c:v>2.7969900000000002E-16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5530676175293696E-7</c:v>
+                  <c:v>1.8845500000000001E-12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2034899408805298E-16</c:v>
+                  <c:v>6.3179100000000001E-12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -735,23 +699,23 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Foglio1!$B$2:$B$5</c15:sqref>
+                          <c15:sqref>Foglio1!$B$9:$B$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="4"/>
                       <c:pt idx="0">
+                        <c:v>ex15.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
                         <c:v>cfd1.mtx</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="3">
                         <c:v>cfd2.mtx</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>ex15.mtx</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>shallow_water1.mtx</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1074,29 +1038,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$6:$B$12</c:f>
+              <c:f>Foglio1!$B$2:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>G3_circuit.mtx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>cfd2.mtx</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ex15.mtx</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>apache2.mtx</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>shallow_water1.mtx</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1111,22 +1075,22 @@
                   <c:v>435446512</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2671760416</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2039944908</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>904888848</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2774968</c:v>
+                  <c:v>41860000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2671760416</c:v>
+                  <c:v>368859400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27857172</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0">
-                  <c:v>406911040</c:v>
+                  <c:v>1268173672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2498198312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1170,29 +1134,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$6:$B$12</c:f>
+              <c:f>Foglio1!$B$2:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>G3_circuit.mtx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>cfd2.mtx</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ex15.mtx</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>apache2.mtx</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>shallow_water1.mtx</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1207,22 +1171,22 @@
                   <c:v>1591</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7007</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>6521</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2246</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>3.8220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7007</c:v>
+                  <c:v>68.638000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150</c:v>
+                  <c:v>260.19299999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1027</c:v>
+                  <c:v>633.50800000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1266,29 +1230,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$6:$B$12</c:f>
+              <c:f>Foglio1!$B$2:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>G3_circuit.mtx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>cfd2.mtx</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ex15.mtx</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>apache2.mtx</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>shallow_water1.mtx</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1303,22 +1267,22 @@
                   <c:v>2.35914E-12</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7.6493399999999997E-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7.5445000000000004E-12</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.3179100000000001E-12</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9530000000000003E-7</c:v>
+                  <c:v>8.5530676175293696E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6493399999999997E-11</c:v>
+                  <c:v>3.2034899408805298E-16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7969900000000002E-16</c:v>
+                  <c:v>2.4587709153303701E-13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8845500000000001E-12</c:v>
+                  <c:v>6.7556406837391204E-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,32 +1358,32 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Foglio1!$B$6:$B$12</c15:sqref>
+                          <c15:sqref>Foglio1!$B$2:$B$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
+                        <c:v>ex15.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>cfd1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cfd2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>parabolic_fem.mtx</c:v>
                       </c:pt>
-                      <c:pt idx="1">
-                        <c:v>G3_circuit.mtx</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>cfd2.mtx</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>ex15.mtx</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>apache2.mtx</c:v>
                       </c:pt>
-                      <c:pt idx="5">
-                        <c:v>shallow_water1.mtx</c:v>
-                      </c:pt>
                       <c:pt idx="6">
-                        <c:v>cfd1.mtx</c:v>
+                        <c:v>G3_circuit.mtx</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1742,29 +1706,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$13:$B$19</c:f>
+              <c:f>Foglio1!$B$20:$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>apache2.mtx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>cfd1.mtx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>cfd2.mtx</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ex15.mtx</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>G3_circuit.mtx</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>parabolic_fem.mtx</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1773,28 +1737,28 @@
             <c:numRef>
               <c:f>Foglio1!$I$13:$I$19</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1639027704</c:v>
+                  <c:v>3445756</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>272271008</c:v>
+                  <c:v>39794652</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>531014880</c:v>
+                  <c:v>241522768</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2129136</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1754322104</c:v>
+                  <c:v>455155020</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>505652608</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>335653536</c:v>
+                  <c:v>1694291848</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27083120</c:v>
+                  <c:v>1323715140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1838,29 +1802,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$13:$B$19</c:f>
+              <c:f>Foglio1!$B$20:$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>apache2.mtx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>cfd1.mtx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>cfd2.mtx</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ex15.mtx</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>G3_circuit.mtx</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>parabolic_fem.mtx</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1872,25 +1836,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1062.64734268188</c:v>
+                  <c:v>1.0008450000071889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>170.428991317749</c:v>
+                  <c:v>11.020814999994855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>325.01006126403797</c:v>
+                  <c:v>48.668755000022657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.65653228759766</c:v>
+                  <c:v>86.334539000006316</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1106.6265106201199</c:v>
+                  <c:v>114.69721199999938</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>245.44978141784699</c:v>
+                  <c:v>338.41094100000646</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.692203521728501</c:v>
+                  <c:v>327.97127400000647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1934,29 +1898,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$13:$B$19</c:f>
+              <c:f>Foglio1!$B$20:$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>apache2.mtx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>cfd1.mtx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>cfd2.mtx</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ex15.mtx</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>G3_circuit.mtx</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>parabolic_fem.mtx</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1968,25 +1932,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.7218014336550301E-11</c:v>
+                  <c:v>6.3730398920252567E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3026412782843E-13</c:v>
+                  <c:v>2.4191432592763325E-16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.27750318052995E-12</c:v>
+                  <c:v>2.4936662481657558E-14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2985734767509496E-7</c:v>
+                  <c:v>3.79734620529076E-13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2908723645494E-12</c:v>
+                  <c:v>1.2186342978855653E-12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3078895379913298E-12</c:v>
+                  <c:v>2.6439542358305498E-11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7905845826963299E-16</c:v>
+                  <c:v>2.7419663599645289E-12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2062,32 +2026,32 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Foglio1!$B$13:$B$19</c15:sqref>
+                          <c15:sqref>Foglio1!$B$20:$B$26</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
+                        <c:v>ex15.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>cfd1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cfd2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>parabolic_fem.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
                         <c:v>apache2.mtx</c:v>
                       </c:pt>
-                      <c:pt idx="1">
-                        <c:v>cfd1.mtx</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>cfd2.mtx</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>ex15.mtx</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="6">
                         <c:v>G3_circuit.mtx</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>parabolic_fem.mtx</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>shallow_water1.mtx</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2410,29 +2374,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$20:$B$26</c:f>
+              <c:f>Foglio1!$B$13:$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>G3_circuit.mtx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>cfd2.mtx</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ex15.mtx</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>apache2.mtx</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>shallow_water1.mtx</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2441,28 +2405,28 @@
             <c:numRef>
               <c:f>Foglio1!$I$20:$I$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0" formatCode="0">
-                  <c:v>505652608</c:v>
+                <c:pt idx="0">
+                  <c:v>2129136</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1323715140</c:v>
+                  <c:v>27083120</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>455155020</c:v>
+                  <c:v>272271008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3445756</c:v>
+                  <c:v>531014880</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1694291848</c:v>
+                  <c:v>335653536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39794652</c:v>
+                  <c:v>1639027704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>241522768</c:v>
+                  <c:v>1754322104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2506,29 +2470,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$20:$B$26</c:f>
+              <c:f>Foglio1!$B$13:$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>G3_circuit.mtx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>cfd2.mtx</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ex15.mtx</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>apache2.mtx</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>shallow_water1.mtx</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2540,25 +2504,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>114.69721199999938</c:v>
+                  <c:v>1.65653228759766</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>327.97127400000647</c:v>
+                  <c:v>22.692203521728501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.334539000006316</c:v>
+                  <c:v>170.428991317749</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0008450000071889</c:v>
+                  <c:v>325.01006126403797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>338.41094100000646</c:v>
+                  <c:v>245.44978141784699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.020814999994855</c:v>
+                  <c:v>1062.64734268188</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.668755000022657</c:v>
+                  <c:v>1106.6265106201199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2602,29 +2566,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$20:$B$26</c:f>
+              <c:f>Foglio1!$B$13:$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>G3_circuit.mtx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>cfd2.mtx</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ex15.mtx</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>apache2.mtx</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>shallow_water1.mtx</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2636,25 +2600,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.2186342978855653E-12</c:v>
+                  <c:v>7.2985734767509496E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7419663599645289E-12</c:v>
+                  <c:v>2.7905845826963299E-16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.79734620529076E-13</c:v>
+                  <c:v>1.3026412782843E-13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3730398920252567E-7</c:v>
+                  <c:v>1.27750318052995E-12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6439542358305498E-11</c:v>
+                  <c:v>2.3078895379913298E-12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4191432592763325E-16</c:v>
+                  <c:v>1.7218014336550301E-11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4936662481657558E-14</c:v>
+                  <c:v>1.2908723645494E-12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2730,32 +2694,32 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Foglio1!$B$20:$B$26</c15:sqref>
+                          <c15:sqref>Foglio1!$B$13:$B$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
+                        <c:v>ex15.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>cfd1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cfd2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>parabolic_fem.mtx</c:v>
                       </c:pt>
-                      <c:pt idx="1">
-                        <c:v>G3_circuit.mtx</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>cfd2.mtx</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>ex15.mtx</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>apache2.mtx</c:v>
                       </c:pt>
-                      <c:pt idx="5">
-                        <c:v>shallow_water1.mtx</c:v>
-                      </c:pt>
                       <c:pt idx="6">
-                        <c:v>cfd1.mtx</c:v>
+                        <c:v>G3_circuit.mtx</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5315,8 +5279,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E366A8B-E95F-4434-81CF-6148B24ECA73}" name="results__2" displayName="results__2" ref="A1:K26" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:K26" xr:uid="{013140E5-0690-43F9-AA37-6AAEECDDFB27}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K20">
-    <sortCondition ref="A1:A20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K26">
+    <sortCondition ref="A1:A26"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{72511518-1271-4CDA-8834-5455F770217B}" uniqueName="1" name="program" queryTableFieldId="1" dataDxfId="10"/>
@@ -5634,8 +5598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701A704E-F64D-4202-A0F0-6C8958C79E3A}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5688,142 +5652,142 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1">
+        <v>104</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6867</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6867</v>
+      </c>
+      <c r="F2" s="1">
+        <v>98671</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1211524</v>
+      </c>
+      <c r="H2" s="1">
+        <v>183</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2774968</v>
+      </c>
+      <c r="J2" s="10">
         <v>13</v>
       </c>
-      <c r="C2" s="1">
-        <v>1433.4469999999999</v>
-      </c>
-      <c r="D2" s="1">
-        <v>70656</v>
-      </c>
-      <c r="E2" s="1">
-        <v>70656</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1825580</v>
-      </c>
-      <c r="G2" s="1">
-        <v>30905032</v>
-      </c>
-      <c r="H2" s="1">
-        <v>11591.004000000001</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1268173672</v>
-      </c>
-      <c r="J2" s="1">
-        <v>260.19299999999998</v>
-      </c>
       <c r="K2" s="1">
-        <v>2.4587709153303701E-13</v>
+        <v>7.9530000000000003E-7</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
-        <v>1938.096</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>403</v>
+      </c>
+      <c r="D3" s="1">
+        <v>81920</v>
+      </c>
+      <c r="E3" s="1">
+        <v>81920</v>
+      </c>
+      <c r="F3" s="1">
+        <v>327680</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4259844</v>
       </c>
       <c r="H3" s="1">
-        <v>17187.194</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2498198312</v>
+        <v>3984</v>
+      </c>
+      <c r="I3" s="1">
+        <v>27857172</v>
       </c>
       <c r="J3" s="1">
-        <v>633.50800000000004</v>
+        <v>150</v>
       </c>
       <c r="K3" s="1">
-        <v>6.7556406837391204E-13</v>
+        <v>2.7969900000000002E-16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>218.88</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="2">
-        <v>41860000</v>
+        <v>1619</v>
+      </c>
+      <c r="D4" s="1">
+        <v>70656</v>
+      </c>
+      <c r="E4" s="1">
+        <v>70656</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1825580</v>
+      </c>
+      <c r="G4" s="1">
+        <v>22189588</v>
+      </c>
+      <c r="H4" s="1">
+        <v>140442</v>
+      </c>
+      <c r="I4" s="3">
+        <v>406911040</v>
       </c>
       <c r="J4" s="1">
-        <v>3.8220000000000001</v>
+        <v>1027</v>
       </c>
       <c r="K4" s="1">
-        <v>8.5530676175293696E-7</v>
+        <v>1.8845500000000001E-12</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
-        <v>302.15600000000001</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>2791</v>
+      </c>
+      <c r="D5" s="1">
+        <v>123440</v>
+      </c>
+      <c r="E5" s="1">
+        <v>123440</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3085406</v>
+      </c>
+      <c r="G5" s="1">
+        <v>37518636</v>
       </c>
       <c r="H5" s="1">
-        <v>6002.4679999999998</v>
-      </c>
-      <c r="I5" s="2">
-        <v>368859400</v>
-      </c>
-      <c r="J5" s="1">
-        <v>68.638000000000005</v>
+        <v>549795</v>
+      </c>
+      <c r="I5" s="10">
+        <v>904888848</v>
+      </c>
+      <c r="J5" s="10">
+        <v>2246</v>
       </c>
       <c r="K5" s="1">
-        <v>3.2034899408805298E-16</v>
+        <v>6.3179100000000001E-12</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -5851,10 +5815,10 @@
       <c r="H6" s="1">
         <v>84319</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="10">
         <v>435446512</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="10">
         <v>1591</v>
       </c>
       <c r="K6" s="1">
@@ -5866,34 +5830,34 @@
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
-        <v>7880</v>
+        <v>4668</v>
       </c>
       <c r="D7" s="1">
-        <v>1585478</v>
+        <v>715176</v>
       </c>
       <c r="E7" s="1">
-        <v>1585478</v>
+        <v>715176</v>
       </c>
       <c r="F7" s="1">
-        <v>7660826</v>
+        <v>4817870</v>
       </c>
       <c r="G7" s="1">
-        <v>98271828</v>
+        <v>60675148</v>
       </c>
       <c r="H7" s="1">
-        <v>928087</v>
+        <v>1944795</v>
       </c>
       <c r="I7" s="1">
-        <v>2039944908</v>
+        <v>2671760416</v>
       </c>
       <c r="J7" s="1">
-        <v>6521</v>
+        <v>7007</v>
       </c>
       <c r="K7" s="1">
-        <v>7.5445000000000004E-12</v>
+        <v>7.6493399999999997E-11</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -5901,605 +5865,605 @@
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
-        <v>2791</v>
+        <v>7880</v>
       </c>
       <c r="D8" s="1">
-        <v>123440</v>
+        <v>1585478</v>
       </c>
       <c r="E8" s="1">
-        <v>123440</v>
+        <v>1585478</v>
       </c>
       <c r="F8" s="1">
-        <v>3085406</v>
+        <v>7660826</v>
       </c>
       <c r="G8" s="1">
-        <v>37518636</v>
+        <v>98271828</v>
       </c>
       <c r="H8" s="1">
-        <v>549795</v>
-      </c>
-      <c r="I8" s="1">
-        <v>904888848</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2246</v>
+        <v>928087</v>
+      </c>
+      <c r="I8" s="10">
+        <v>2039944908</v>
+      </c>
+      <c r="J8" s="10">
+        <v>6521</v>
       </c>
       <c r="K8" s="1">
-        <v>6.3179100000000001E-12</v>
+        <v>7.5445000000000004E-12</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>104</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6867</v>
-      </c>
-      <c r="E9" s="1">
-        <v>6867</v>
-      </c>
-      <c r="F9" s="1">
-        <v>98671</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1211524</v>
-      </c>
-      <c r="H9" s="1">
-        <v>183</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2774968</v>
-      </c>
-      <c r="J9" s="1">
-        <v>13</v>
+        <v>218.88</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1743552</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="12">
+        <v>41860000</v>
+      </c>
+      <c r="J9" s="10">
+        <v>3.8220000000000001</v>
       </c>
       <c r="K9" s="1">
-        <v>7.9530000000000003E-7</v>
+        <v>8.5530676175293696E-7</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
-        <v>4668</v>
-      </c>
-      <c r="D10" s="1">
-        <v>715176</v>
-      </c>
-      <c r="E10" s="1">
-        <v>715176</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4817870</v>
-      </c>
-      <c r="G10" s="1">
-        <v>60675148</v>
+        <v>302.15600000000001</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7208968</v>
       </c>
       <c r="H10" s="1">
-        <v>1944795</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2671760416</v>
+        <v>6002.4679999999998</v>
+      </c>
+      <c r="I10" s="2">
+        <v>368859400</v>
       </c>
       <c r="J10" s="1">
-        <v>7007</v>
+        <v>68.638000000000005</v>
       </c>
       <c r="K10" s="1">
-        <v>7.6493399999999997E-11</v>
+        <v>3.2034899408805298E-16</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>403</v>
+        <v>1433.4469999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>81920</v>
+        <v>70656</v>
       </c>
       <c r="E11" s="1">
-        <v>81920</v>
+        <v>70656</v>
       </c>
       <c r="F11" s="1">
-        <v>327680</v>
+        <v>1825580</v>
       </c>
       <c r="G11" s="1">
-        <v>4259844</v>
+        <v>30905032</v>
       </c>
       <c r="H11" s="1">
-        <v>3984</v>
-      </c>
-      <c r="I11" s="1">
-        <v>27857172</v>
-      </c>
-      <c r="J11" s="1">
-        <v>150</v>
+        <v>11591.004000000001</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1268173672</v>
+      </c>
+      <c r="J11" s="10">
+        <v>260.19299999999998</v>
       </c>
       <c r="K11" s="1">
-        <v>2.7969900000000002E-16</v>
+        <v>2.4587709153303701E-13</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>1619</v>
-      </c>
-      <c r="D12" s="1">
-        <v>70656</v>
-      </c>
-      <c r="E12" s="1">
-        <v>70656</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1825580</v>
-      </c>
-      <c r="G12" s="1">
-        <v>22189588</v>
+        <v>1938.096</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="2">
+        <v>52329064</v>
       </c>
       <c r="H12" s="1">
-        <v>140442</v>
-      </c>
-      <c r="I12" s="5">
-        <v>406911040</v>
+        <v>17187.194</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2498198312</v>
       </c>
       <c r="J12" s="1">
-        <v>1027</v>
+        <v>633.50800000000004</v>
       </c>
       <c r="K12" s="1">
-        <v>1.8845500000000001E-12</v>
+        <v>6.7556406837391204E-13</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>22422.677683830301</v>
+        <v>295.7377870000073</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1211524</v>
       </c>
       <c r="H13" s="1">
-        <v>1661.3473931948299</v>
-      </c>
-      <c r="I13" s="6">
-        <v>1639027704</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1062.64734268188</v>
+        <v>50.911309999989385</v>
+      </c>
+      <c r="I13" s="5">
+        <v>3445756</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1.0008450000071889</v>
       </c>
       <c r="K13" s="1">
-        <v>1.7218014336550301E-11</v>
+        <v>6.3730398920252567E-7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
-        <v>12694.4952011108</v>
+        <v>415.64521799998033</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4259844</v>
       </c>
       <c r="H14" s="1">
-        <v>7062.6399517059299</v>
-      </c>
-      <c r="I14" s="7">
-        <v>272271008</v>
-      </c>
-      <c r="J14" s="3">
-        <v>170.428991317749</v>
+        <v>1287.6246049999907</v>
+      </c>
+      <c r="I14" s="5">
+        <v>39794652</v>
+      </c>
+      <c r="J14" s="7">
+        <v>11.020814999994855</v>
       </c>
       <c r="K14" s="1">
-        <v>1.3026412782843E-13</v>
+        <v>2.4191432592763325E-16</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
-        <v>35480.775117874102</v>
+        <v>1655.2992560000064</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="G15" s="2">
+        <v>22222996</v>
       </c>
       <c r="H15" s="1">
-        <v>19416.300535202001</v>
-      </c>
-      <c r="I15" s="6">
-        <v>531014880</v>
-      </c>
-      <c r="J15" s="4">
-        <v>325.01006126403797</v>
+        <v>8649.5423920000012</v>
+      </c>
+      <c r="I15" s="5">
+        <v>241522768</v>
+      </c>
+      <c r="J15" s="7">
+        <v>48.668755000022657</v>
       </c>
       <c r="K15" s="1">
-        <v>1.27750318052995E-12</v>
+        <v>2.4936662481657558E-14</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
-        <v>194.76556777954099</v>
+        <v>2682.516115999988</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="G16" s="2">
+        <v>37548540</v>
       </c>
       <c r="H16" s="1">
-        <v>15.5298709869385</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2129136</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1.65653228759766</v>
+        <v>18908.148292000005</v>
+      </c>
+      <c r="I16" s="5">
+        <v>455155020</v>
+      </c>
+      <c r="J16" s="7">
+        <v>86.334539000006316</v>
       </c>
       <c r="K16" s="1">
-        <v>7.2985734767509496E-7</v>
+        <v>3.79734620529076E-13</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>2129.2318397098102</v>
+        <v>4155.2011220000004</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="G17" s="2">
+        <v>46198804</v>
       </c>
       <c r="H17" s="1">
-        <v>1438.98998896281</v>
-      </c>
-      <c r="I17" s="6">
-        <v>1754322104</v>
-      </c>
-      <c r="J17" s="4">
-        <v>1106.6265106201199</v>
+        <v>18057.028404000001</v>
+      </c>
+      <c r="I17" s="11">
+        <v>505652608</v>
+      </c>
+      <c r="J17" s="7">
+        <v>114.69721199999938</v>
       </c>
       <c r="K17" s="1">
-        <v>1.2908723645494E-12</v>
+        <v>1.2186342978855653E-12</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1">
-        <v>10500.851325194</v>
+        <v>4566.2451680000086</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="G18" s="2">
+        <v>60675148</v>
       </c>
       <c r="H18" s="1">
-        <v>7037.6114845275897</v>
-      </c>
-      <c r="I18" s="7">
-        <v>335653536</v>
-      </c>
-      <c r="J18" s="3">
-        <v>245.44978141784699</v>
+        <v>95081.390981999997</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1694291848</v>
+      </c>
+      <c r="J18" s="7">
+        <v>338.41094100000646</v>
       </c>
       <c r="K18" s="1">
-        <v>2.3078895379913298E-12</v>
+        <v>2.6439542358305498E-11</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
-        <v>14498.229503631601</v>
+        <v>7523.8542049999996</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="G19" s="2">
+        <v>98271828</v>
       </c>
       <c r="H19" s="1">
-        <v>870.985507965088</v>
-      </c>
-      <c r="I19" s="6">
-        <v>27083120</v>
-      </c>
-      <c r="J19" s="4">
-        <v>22.692203521728501</v>
+        <v>53450.748094999995</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1323715140</v>
+      </c>
+      <c r="J19" s="7">
+        <v>327.97127400000647</v>
       </c>
       <c r="K19" s="1">
-        <v>2.7905845826963299E-16</v>
+        <v>2.7419663599645289E-12</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1">
-        <v>4155.2011220000004</v>
+        <v>194.76556777954099</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1212616</v>
       </c>
       <c r="H20" s="1">
-        <v>18057.028404000001</v>
-      </c>
-      <c r="I20" s="5">
-        <v>505652608</v>
-      </c>
-      <c r="J20" s="1">
-        <v>114.69721199999938</v>
+        <v>15.5298709869385</v>
+      </c>
+      <c r="I20" s="6">
+        <v>2129136</v>
+      </c>
+      <c r="J20" s="9">
+        <v>1.65653228759766</v>
       </c>
       <c r="K20" s="1">
-        <v>1.2186342978855653E-12</v>
+        <v>7.2985734767509496E-7</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
-        <v>7523.8542049999996</v>
+        <v>14498.229503631601</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="G21" s="2">
+        <v>4260936</v>
       </c>
       <c r="H21" s="1">
-        <v>53450.748094999995</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1323715140</v>
-      </c>
-      <c r="J21" s="1">
-        <v>327.97127400000647</v>
+        <v>870.985507965088</v>
+      </c>
+      <c r="I21" s="4">
+        <v>27083120</v>
+      </c>
+      <c r="J21" s="8">
+        <v>22.692203521728501</v>
       </c>
       <c r="K21" s="1">
-        <v>2.7419663599645289E-12</v>
+        <v>2.7905845826963299E-16</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1">
-        <v>2682.516115999988</v>
+        <v>12694.4952011108</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
+      </c>
+      <c r="G22" s="2">
+        <v>22190680</v>
       </c>
       <c r="H22" s="1">
-        <v>18908.148292000005</v>
-      </c>
-      <c r="I22" s="2">
-        <v>455155020</v>
-      </c>
-      <c r="J22" s="1">
-        <v>86.334539000006316</v>
+        <v>7062.6399517059299</v>
+      </c>
+      <c r="I22" s="6">
+        <v>272271008</v>
+      </c>
+      <c r="J22" s="9">
+        <v>170.428991317749</v>
       </c>
       <c r="K22" s="1">
-        <v>3.79734620529076E-13</v>
+        <v>1.3026412782843E-13</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1">
-        <v>295.7377870000073</v>
+        <v>35480.775117874102</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
+      </c>
+      <c r="G23" s="2">
+        <v>37519728</v>
       </c>
       <c r="H23" s="1">
-        <v>50.911309999989385</v>
-      </c>
-      <c r="I23" s="2">
-        <v>3445756</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1.0008450000071889</v>
+        <v>19416.300535202001</v>
+      </c>
+      <c r="I23" s="4">
+        <v>531014880</v>
+      </c>
+      <c r="J23" s="8">
+        <v>325.01006126403797</v>
       </c>
       <c r="K23" s="1">
-        <v>6.3730398920252567E-7</v>
+        <v>1.27750318052995E-12</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1">
-        <v>4566.2451680000086</v>
+        <v>10500.851325194</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
+      </c>
+      <c r="G24" s="2">
+        <v>46199896</v>
       </c>
       <c r="H24" s="1">
-        <v>95081.390981999997</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1694291848</v>
-      </c>
-      <c r="J24" s="1">
-        <v>338.41094100000646</v>
+        <v>7037.6114845275897</v>
+      </c>
+      <c r="I24" s="6">
+        <v>335653536</v>
+      </c>
+      <c r="J24" s="9">
+        <v>245.44978141784699</v>
       </c>
       <c r="K24" s="1">
-        <v>2.6439542358305498E-11</v>
+        <v>2.3078895379913298E-12</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1">
-        <v>415.64521799998033</v>
+        <v>22422.677683830301</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>29</v>
@@ -6510,55 +6474,55 @@
       <c r="F25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>53</v>
+      <c r="G25" s="2">
+        <v>60676240</v>
       </c>
       <c r="H25" s="1">
-        <v>1287.6246049999907</v>
-      </c>
-      <c r="I25" s="2">
-        <v>39794652</v>
-      </c>
-      <c r="J25" s="1">
-        <v>11.020814999994855</v>
+        <v>1661.3473931948299</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1639027704</v>
+      </c>
+      <c r="J25" s="8">
+        <v>1062.64734268188</v>
       </c>
       <c r="K25" s="1">
-        <v>2.4191432592763325E-16</v>
+        <v>1.7218014336550301E-11</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1">
-        <v>1655.2992560000064</v>
+        <v>2129.2318397098102</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
+      </c>
+      <c r="G26" s="2">
+        <v>98272920</v>
       </c>
       <c r="H26" s="1">
-        <v>8649.5423920000012</v>
-      </c>
-      <c r="I26" s="2">
-        <v>241522768</v>
-      </c>
-      <c r="J26" s="1">
-        <v>48.668755000022657</v>
+        <v>1438.98998896281</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1754322104</v>
+      </c>
+      <c r="J26" s="8">
+        <v>1106.6265106201199</v>
       </c>
       <c r="K26" s="1">
-        <v>2.4936662481657558E-14</v>
+        <v>1.2908723645494E-12</v>
       </c>
     </row>
   </sheetData>
